--- a/relatorios/saida_analise.xlsx
+++ b/relatorios/saida_analise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Produto</t>
   </si>
@@ -28,6 +28,12 @@
     <t>CFOP</t>
   </si>
   <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
     <t>Linguiça</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
   </si>
   <si>
     <t>Ração Animal</t>
+  </si>
+  <si>
+    <t>não informado</t>
   </si>
 </sst>
 </file>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +420,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -425,10 +440,16 @@
       <c r="D2">
         <v>5102</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>504</v>
@@ -439,10 +460,16 @@
       <c r="D3">
         <v>6102</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2309</v>
@@ -452,6 +479,12 @@
       </c>
       <c r="D4">
         <v>5101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
